--- a/S3. GO term and KEGG pathway enrichment (sub network).xlsx
+++ b/S3. GO term and KEGG pathway enrichment (sub network).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="breast" sheetId="3" r:id="rId1"/>
@@ -1669,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1822,7 +1822,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2491,7 +2491,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2709,7 +2709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
